--- a/pred_ohlcv/54_21/2020-01-22 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 STRAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-20946.76727411</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-15944.85097411</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-18385.93087411</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-18367.85527411</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-18859.27847411</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-19689.86327411</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18281.18097411</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-17029.99077411</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-29642.96347410999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-33249.58547411</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32533.37517411</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32590.03497411</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32787.03497411</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-36552.52077410999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-36561.64647410999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-36569.34647410999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-36966.24763395999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-40682.95223395998</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-40724.94403395998</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-40723.64403395997</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-39302.28296487997</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-34952.45566487998</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-35504.45566487998</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-35514.44566487998</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-35743.73786487997</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-35713.73786487997</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-40053.56516487997</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-40052.26516487997</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-41572.83956487996</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-39882.78416487997</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-40505.52628594996</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-41579.42198594996</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-41984.48158594996</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-41995.11538594996</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-42607.43208594996</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-38902.65078594996</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38905.18058594996</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38907.71038594995</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-37743.00778594996</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-37917.74778594996</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38192.74778594996</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-41549.29718594996</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-42281.43428594996</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-44669.63028594996</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-44664.28668594996</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-30722.69148594996</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-31861.55488594995</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-29203.29648594996</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-29508.13438594995</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-26591.58908594995</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-27730.45248594995</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-31246.00278594995</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-31101.19718594995</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30970.87218594995</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-29700.86958594995</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-14291.56808594995</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>11707.01501405005</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>6130.544714050046</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4201.723785949955</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-8929.950585949955</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-12315.23688594995</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-11445.23688594995</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-13485.89908594996</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-13483.82378594995</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-17534.45578594995</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-16288.77988594995</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 STRAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-20946.76727411</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-15944.85097411</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-18385.93087411</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-18367.85527411</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-18859.27847411</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-19689.86327411</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18281.18097411</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-17029.99077411</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-29642.96347410999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-33249.58547411</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32533.37517411</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32590.03497411</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32787.03497411</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-36966.24763395999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-37583.64763395998</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-37104.46803395998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-38714.46803395998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-40682.95223395998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-40724.94403395998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-40723.64403395997</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-39302.28296487997</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-34952.45566487998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-35504.45566487998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-35514.44566487998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-35519.18276487997</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-35743.73786487997</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-35713.73786487997</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-40053.56516487997</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-40052.26516487997</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-41572.83956487996</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-39882.78416487997</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-40505.52628594996</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-41579.42198594996</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-41984.48158594996</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-41995.11538594996</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-42607.43208594996</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-38902.65078594996</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38905.18058594996</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38907.71038594995</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-37743.00778594996</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-37917.74778594996</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38192.74778594996</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-41549.29718594996</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-42281.43428594996</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-44669.63028594996</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-44664.28668594996</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-30722.69148594996</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-31861.55488594995</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-29203.29648594996</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-29508.13438594995</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-26591.58908594995</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-27730.45248594995</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-31246.00278594995</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-31101.19718594995</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30970.87218594995</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-29700.86958594995</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>34485.18411405005</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>13286.84011405005</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>6130.544714050046</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4307.753785949954</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4201.723785949955</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-8929.950585949955</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-11445.23688594995</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-13483.82378594995</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-17534.45578594995</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-16288.77988594995</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
